--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu nhap xuat vcnb/WF0013 Cap nhat phieu chuyen kho.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu nhap xuat vcnb/WF0013 Cap nhat phieu chuyen kho.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Cap nhat phieu nhap xuat vcnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,11 +26,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Code Standar'!$A$1:$D$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Data Difination'!$A$1:$J$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$Q$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$S$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$K$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$Q$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$J$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$L$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Item Screen'!$A$1:$N$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Layout Screen'!$A$1:$J$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Update History'!$A$1:$J$14</definedName>
@@ -952,20 +952,6 @@
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tên Project
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -975,7 +961,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">ID màn hình
+          <t xml:space="preserve">Tên Project
 </t>
         </r>
       </text>
@@ -989,7 +975,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Người tạo tài liệu
+          <t xml:space="preserve">ID màn hình
 </t>
         </r>
       </text>
@@ -1003,11 +989,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Người cập nhật tài liệu</t>
+          <t xml:space="preserve">Người tạo tài liệu
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1016,8 +1003,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Tên màn hình
-</t>
+          <t>Người cập nhật tài liệu</t>
         </r>
       </text>
     </comment>
@@ -1039,22 +1025,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ngày tạo tài liệu</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tên màn hình
 </t>
         </r>
       </text>
@@ -1083,23 +1059,47 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tên của item trên màn hình</t>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngày tạo tài liệu</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
     <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tên của item trên màn hình</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1112,7 +1112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1134,7 +1134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1147,7 +1147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1387,20 +1387,6 @@
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tên Project
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1410,7 +1396,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">ID màn hình
+          <t xml:space="preserve">Tên Project
 </t>
         </r>
       </text>
@@ -1424,7 +1410,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Người tạo tài liệu
+          <t xml:space="preserve">ID màn hình
 </t>
         </r>
       </text>
@@ -1438,11 +1424,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Người cập nhật tài liệu</t>
+          <t xml:space="preserve">Người tạo tài liệu
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1451,8 +1438,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Tên màn hình
-</t>
+          <t>Người cập nhật tài liệu</t>
         </r>
       </text>
     </comment>
@@ -1474,22 +1460,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ngày tạo tài liệu</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tên màn hình
 </t>
         </r>
       </text>
@@ -1518,7 +1494,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngày tạo tài liệu</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1535,7 +1535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1550,7 +1550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1568,7 +1568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1582,7 +1582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1596,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1610,7 +1610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="1" shapeId="0">
+    <comment ref="R4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1634,7 +1634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1952,7 +1952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="273">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2991,6 +2991,18 @@
 + sheet Input check Thêm WFML000185 
 + sheet Data Input thêm @SQL005
 + Sheet Form Func Spec Thêm xử lý khi sửa</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Ver 3.0</t>
+  </si>
+  <si>
+    <t>CusomizeIndex</t>
+  </si>
+  <si>
+    <t>CustomizeIndex</t>
   </si>
 </sst>
 </file>
@@ -3446,7 +3458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3962,11 +3974,89 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4025,41 +4115,23 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4079,24 +4151,6 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4124,6 +4178,15 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4166,6 +4229,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4178,62 +4247,14 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4592,10 +4613,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="209"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -4622,8 +4643,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
+      <c r="A2" s="209"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -4674,14 +4695,14 @@
       <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="216" t="s">
+      <c r="E4" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
     </row>
     <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -4698,14 +4719,14 @@
         <f>H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="211" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="218"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="218"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="212"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="212"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -4720,14 +4741,14 @@
       <c r="D6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="219" t="s">
+      <c r="E6" s="213" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="221"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="215"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="112">
@@ -4742,14 +4763,14 @@
       <c r="D7" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="263" t="s">
+      <c r="E7" s="216" t="s">
         <v>268</v>
       </c>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="223"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="218"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -4760,12 +4781,12 @@
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="214"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="208"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -4776,12 +4797,12 @@
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="196"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="222"/>
     </row>
     <row r="10" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -4792,12 +4813,12 @@
       </c>
       <c r="C10" s="117"/>
       <c r="D10" s="118"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="225"/>
     </row>
     <row r="11" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4808,12 +4829,12 @@
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="121"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="202"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="227"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="227"/>
+      <c r="I11" s="227"/>
+      <c r="J11" s="228"/>
     </row>
     <row r="12" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -4824,12 +4845,12 @@
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="124"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="205"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="230"/>
+      <c r="H12" s="230"/>
+      <c r="I12" s="230"/>
+      <c r="J12" s="231"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -4840,12 +4861,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="208"/>
+      <c r="E13" s="232"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="234"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -4856,357 +4877,373 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="211"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="236"/>
+      <c r="G14" s="236"/>
+      <c r="H14" s="236"/>
+      <c r="I14" s="236"/>
+      <c r="J14" s="237"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="219"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="219"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="219"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="219"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="219"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="219"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="219"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="193"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="219"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="219"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="219"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="219"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="219"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="193"/>
+      <c r="E35" s="219"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
+      <c r="E36" s="219"/>
+      <c r="F36" s="219"/>
+      <c r="G36" s="219"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="219"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="193"/>
+      <c r="E37" s="219"/>
+      <c r="F37" s="219"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="219"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="193"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="219"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="193"/>
-      <c r="G39" s="193"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="193"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="219"/>
+      <c r="J39" s="219"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
+      <c r="E40" s="219"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="219"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="193"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E10:J10"/>
@@ -5219,28 +5256,12 @@
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -5430,8 +5451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5449,10 +5470,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="209"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -5483,8 +5504,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
+      <c r="A2" s="209"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -5527,76 +5548,76 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215" t="s">
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="215"/>
+      <c r="J4" s="209"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="224"/>
-      <c r="B5" s="225"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="230" t="s">
+      <c r="A5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="231"/>
+      <c r="J5" s="239"/>
     </row>
     <row r="6" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="227"/>
-      <c r="B6" s="228"/>
-      <c r="C6" s="228"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
-      <c r="G6" s="228"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="232" t="s">
+      <c r="A6" s="247"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="240" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="233"/>
+      <c r="J6" s="241"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="227"/>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="234" t="s">
+      <c r="A7" s="247"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="235"/>
+      <c r="J7" s="243"/>
     </row>
     <row r="8" spans="1:10" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="227"/>
-      <c r="B8" s="228"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="191" t="s">
+      <c r="A8" s="247"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="282" t="s">
         <v>241</v>
       </c>
-      <c r="J8" s="192"/>
+      <c r="J8" s="283"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -5675,339 +5696,359 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="219"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="219"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="219"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="219"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="219"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="219"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="219"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="193"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="219"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="219"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="219"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="219"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="219"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="193"/>
+      <c r="E35" s="219"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
+      <c r="E36" s="219"/>
+      <c r="F36" s="219"/>
+      <c r="G36" s="219"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="219"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="193"/>
+      <c r="E37" s="219"/>
+      <c r="F37" s="219"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="219"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="193"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="219"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="193"/>
-      <c r="G39" s="193"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="193"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="219"/>
+      <c r="J39" s="219"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
+      <c r="E40" s="219"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="219"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="193"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="219"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A5:H8"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="E41:J41"/>
@@ -6024,25 +6065,6 @@
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A5:H8"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -6060,7 +6082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N226"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
@@ -6084,10 +6106,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="236"/>
+      <c r="B1" s="250"/>
       <c r="C1" s="128" t="s">
         <v>1</v>
       </c>
@@ -6112,18 +6134,18 @@
       <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="237" t="str">
+      <c r="J1" s="251" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="K1" s="238"/>
+      <c r="K1" s="252"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="236"/>
+      <c r="A2" s="209"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="128" t="s">
         <v>7</v>
       </c>
@@ -6148,11 +6170,11 @@
       <c r="I2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="239">
+      <c r="J2" s="253">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
-      <c r="K2" s="240"/>
+      <c r="K2" s="254"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -7862,93 +7884,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="16" customWidth="1"/>
-    <col min="5" max="6" width="21.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="3" width="7.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="16" customWidth="1"/>
+    <col min="7" max="8" width="21.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="str">
+      <c r="F1" s="13" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="125" t="str">
+      <c r="H1" s="125" t="str">
         <f>'Update History'!F1</f>
         <v>WF0013</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="str">
+      <c r="J1" s="14" t="str">
         <f>'Update History'!H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126" t="str">
+      <c r="L1" s="126" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
-      <c r="C2" s="46" t="s">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="209"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="str">
+      <c r="F2" s="13" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-WM</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="H2" s="13" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật phiếu chuyển kho</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="I2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="15">
+      <c r="J2" s="15">
         <f>'Update History'!H2</f>
         <v>42174</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15">
+      <c r="L2" s="15">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7959,546 +7985,636 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="191" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="191" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="E4" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="F4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="G4" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="H4" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="I4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="244" t="s">
+      <c r="J4" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="264"/>
-      <c r="B5" s="265" t="s">
+      <c r="K4" s="258"/>
+      <c r="L4" s="258"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="193">
+        <v>1</v>
+      </c>
+      <c r="B5" s="193" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="193">
+        <v>51</v>
+      </c>
+      <c r="D5" s="194" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="266" t="s">
+      <c r="E5" s="195" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="269" t="s">
+      <c r="F5" s="196"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="198" t="s">
         <v>254</v>
       </c>
-      <c r="G5" s="269" t="s">
+      <c r="I5" s="198" t="s">
         <v>255</v>
       </c>
-      <c r="H5" s="270" t="s">
+      <c r="J5" s="259" t="s">
         <v>256</v>
       </c>
-      <c r="I5" s="271"/>
-      <c r="J5" s="272"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="260"/>
+      <c r="L5" s="261"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="55"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="243"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
+      <c r="L6" s="257"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="51"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="243"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="257"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="243"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="255"/>
+      <c r="K8" s="256"/>
+      <c r="L8" s="257"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="51"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="242"/>
-      <c r="J9" s="243"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="255"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="257"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="51"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="243"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="255"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="257"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="242"/>
-      <c r="J11" s="243"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="255"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="257"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="241"/>
-      <c r="I12" s="242"/>
-      <c r="J12" s="243"/>
-    </row>
-    <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="255"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="257"/>
+    </row>
+    <row r="13" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="55"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="242"/>
-      <c r="J13" s="243"/>
-    </row>
-    <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="255"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
+    </row>
+    <row r="14" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="55"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="242"/>
-      <c r="J14" s="243"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="255"/>
+      <c r="K14" s="256"/>
+      <c r="L14" s="257"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="219"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="219"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
+      <c r="K16" s="219"/>
+      <c r="L16" s="219"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="219"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="219"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="219"/>
+      <c r="L19" s="219"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-    </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="219"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-    </row>
-    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="219"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="219"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="219"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="219"/>
+      <c r="L27" s="219"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="219"/>
+      <c r="K28" s="219"/>
+      <c r="L28" s="219"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="193"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="219"/>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="219"/>
+      <c r="L30" s="219"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="219"/>
+      <c r="K31" s="219"/>
+      <c r="L31" s="219"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="219"/>
+      <c r="K32" s="219"/>
+      <c r="L32" s="219"/>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="219"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="219"/>
+      <c r="K34" s="219"/>
+      <c r="L34" s="219"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="193"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="219"/>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="219"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="219"/>
+      <c r="K36" s="219"/>
+      <c r="L36" s="219"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="193"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="219"/>
+      <c r="K37" s="219"/>
+      <c r="L37" s="219"/>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="193"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="219"/>
+      <c r="K38" s="219"/>
+      <c r="L38" s="219"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="193"/>
-      <c r="G39" s="193"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="193"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="219"/>
+      <c r="J39" s="219"/>
+      <c r="K39" s="219"/>
+      <c r="L39" s="219"/>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="219"/>
+      <c r="K40" s="219"/>
+      <c r="L40" s="219"/>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="193"/>
-    </row>
-    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
+      <c r="K41" s="219"/>
+      <c r="L41" s="219"/>
+    </row>
+    <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="219"/>
+      <c r="K42" s="219"/>
+      <c r="L42" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8531,10 +8647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="209"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -8565,8 +8681,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
+      <c r="A2" s="209"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -8597,16 +8713,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="249"/>
-      <c r="B3" s="250"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="251"/>
+      <c r="A3" s="266"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="268"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
@@ -8621,16 +8737,16 @@
       <c r="D4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="262" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="245"/>
-      <c r="G4" s="246" t="s">
+      <c r="F4" s="262"/>
+      <c r="G4" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="248"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="265"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -8757,339 +8873,359 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="219"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="219"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="219"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="219"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="219"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="219"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="219"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="193"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="219"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="219"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="219"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="219"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="219"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="193"/>
+      <c r="E35" s="219"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
+      <c r="E36" s="219"/>
+      <c r="F36" s="219"/>
+      <c r="G36" s="219"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="219"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="193"/>
+      <c r="E37" s="219"/>
+      <c r="F37" s="219"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="219"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="193"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="219"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="193"/>
-      <c r="G39" s="193"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="193"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="219"/>
+      <c r="J39" s="219"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
+      <c r="E40" s="219"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="219"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="193"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
@@ -9102,26 +9238,6 @@
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -9136,838 +9252,931 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="J7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="L7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="16"/>
-    <col min="12" max="12" width="16.5703125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="16" customWidth="1"/>
-    <col min="14" max="14" width="39.140625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="16" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="16" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="2" width="7.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="16"/>
+    <col min="14" max="14" width="16.5703125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="16" customWidth="1"/>
+    <col min="16" max="16" width="39.140625" style="16" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="16" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+    <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="str">
+      <c r="F1" s="13" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="125" t="str">
+      <c r="H1" s="125" t="str">
         <f>'Update History'!F1</f>
         <v>WF0013</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="str">
+      <c r="J1" s="14" t="str">
         <f>'Update History'!H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126" t="str">
+      <c r="L1" s="126" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
-    </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
-      <c r="C2" s="46" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="209"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="str">
+      <c r="F2" s="13" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-WM</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="H2" s="13" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật phiếu chuyển kho</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="I2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="15">
+      <c r="J2" s="15">
         <f>'Update History'!H2</f>
         <v>42174</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15">
+      <c r="L2" s="15">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="249"/>
-      <c r="B3" s="250"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="266"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="267"/>
+      <c r="K3" s="267"/>
+      <c r="L3" s="268"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="1:17" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="192" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="191" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="E4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="F4" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="G4" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="H4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="I4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="J4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="246" t="s">
+      <c r="K4" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="247"/>
-      <c r="K4" s="247"/>
-      <c r="L4" s="248"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="264"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="265"/>
+      <c r="O4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="P4" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="Q4" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="R4" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="S4" s="66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="158" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="158" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="156"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="163" t="s">
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="163" t="s">
+      <c r="H5" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="163" t="s">
+      <c r="I5" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="H5" s="164" t="s">
+      <c r="J5" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="I5" s="252" t="s">
+      <c r="K5" s="269" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="168" t="s">
+      <c r="L5" s="270"/>
+      <c r="M5" s="270"/>
+      <c r="N5" s="271"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="168" t="s">
+      <c r="R5" s="168" t="s">
         <v>171</v>
       </c>
-      <c r="Q5" s="157"/>
-    </row>
-    <row r="6" spans="1:17" s="158" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="157"/>
+    </row>
+    <row r="6" spans="1:19" s="158" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="159"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="152" t="s">
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="152" t="s">
         <v>229</v>
       </c>
-      <c r="F6" s="163" t="s">
+      <c r="H6" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="163" t="s">
+      <c r="I6" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="H6" s="164" t="s">
+      <c r="J6" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="I6" s="255" t="s">
+      <c r="K6" s="272" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="256"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="257"/>
-      <c r="M6" s="185" t="s">
+      <c r="L6" s="273"/>
+      <c r="M6" s="273"/>
+      <c r="N6" s="274"/>
+      <c r="O6" s="185" t="s">
         <v>230</v>
       </c>
-      <c r="N6" s="186" t="s">
+      <c r="P6" s="186" t="s">
         <v>231</v>
       </c>
-      <c r="O6" s="157"/>
-      <c r="P6" s="157"/>
       <c r="Q6" s="157"/>
-    </row>
-    <row r="7" spans="1:17" s="158" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="157"/>
+      <c r="S6" s="157"/>
+    </row>
+    <row r="7" spans="1:19" s="158" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="153"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="188" t="s">
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="188" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="163" t="s">
+      <c r="H7" s="163" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="163" t="s">
+      <c r="I7" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="164" t="s">
+      <c r="J7" s="164" t="s">
         <v>233</v>
       </c>
-      <c r="I7" s="255" t="s">
+      <c r="K7" s="272" t="s">
         <v>249</v>
       </c>
-      <c r="J7" s="256"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="257"/>
-      <c r="M7" s="189" t="s">
+      <c r="L7" s="273"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="274"/>
+      <c r="O7" s="189" t="s">
         <v>234</v>
       </c>
-      <c r="N7" s="190" t="s">
+      <c r="P7" s="190" t="s">
         <v>244</v>
       </c>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
       <c r="Q7" s="157"/>
-    </row>
-    <row r="8" spans="1:17" s="158" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="157"/>
+      <c r="S7" s="157"/>
+    </row>
+    <row r="8" spans="1:19" s="158" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="159"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="188" t="s">
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="188" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="163" t="s">
+      <c r="H8" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="163" t="s">
+      <c r="I8" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="H8" s="164" t="s">
+      <c r="J8" s="164" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="252" t="s">
+      <c r="K8" s="269" t="s">
         <v>245</v>
       </c>
-      <c r="J8" s="253"/>
-      <c r="K8" s="253"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
+      <c r="L8" s="270"/>
+      <c r="M8" s="270"/>
+      <c r="N8" s="271"/>
       <c r="O8" s="157"/>
       <c r="P8" s="157"/>
       <c r="Q8" s="157"/>
-    </row>
-    <row r="9" spans="1:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="273"/>
-      <c r="B9" s="265" t="s">
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+    </row>
+    <row r="9" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="199"/>
+      <c r="B9" s="284" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="284">
+        <v>51</v>
+      </c>
+      <c r="D9" s="194" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="274"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="269" t="s">
+      <c r="E9" s="200"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="198" t="s">
         <v>263</v>
       </c>
-      <c r="F9" s="275" t="s">
+      <c r="H9" s="201" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="275" t="s">
+      <c r="I9" s="201" t="s">
         <v>258</v>
       </c>
-      <c r="H9" s="268" t="s">
+      <c r="J9" s="197" t="s">
         <v>264</v>
       </c>
-      <c r="I9" s="270" t="s">
+      <c r="K9" s="259" t="s">
         <v>259</v>
       </c>
-      <c r="J9" s="271"/>
-      <c r="K9" s="271"/>
-      <c r="L9" s="272"/>
-      <c r="M9" s="276" t="s">
+      <c r="L9" s="260"/>
+      <c r="M9" s="260"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="202" t="s">
         <v>260</v>
       </c>
-      <c r="N9" s="268" t="s">
+      <c r="P9" s="197" t="s">
         <v>261</v>
       </c>
-      <c r="O9" s="277" t="s">
+      <c r="Q9" s="203" t="s">
         <v>262</v>
       </c>
-      <c r="P9" s="277" t="s">
+      <c r="R9" s="203" t="s">
         <v>171</v>
       </c>
-      <c r="Q9" s="269" t="s">
+      <c r="S9" s="198" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="241"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="243"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="255"/>
+      <c r="L10" s="256"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="257"/>
       <c r="O10" s="60"/>
       <c r="P10" s="60"/>
       <c r="Q10" s="60"/>
-    </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+    </row>
+    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="243"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="255"/>
+      <c r="L11" s="256"/>
+      <c r="M11" s="256"/>
+      <c r="N11" s="257"/>
       <c r="O11" s="60"/>
       <c r="P11" s="60"/>
       <c r="Q11" s="60"/>
-    </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+    </row>
+    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="241"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="243"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="255"/>
+      <c r="L12" s="256"/>
+      <c r="M12" s="256"/>
+      <c r="N12" s="257"/>
       <c r="O12" s="60"/>
       <c r="P12" s="60"/>
       <c r="Q12" s="60"/>
-    </row>
-    <row r="13" spans="1:17" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+    </row>
+    <row r="13" spans="1:19" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="242"/>
-      <c r="K13" s="242"/>
-      <c r="L13" s="243"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="255"/>
+      <c r="L13" s="256"/>
+      <c r="M13" s="256"/>
+      <c r="N13" s="257"/>
       <c r="O13" s="60"/>
       <c r="P13" s="60"/>
       <c r="Q13" s="60"/>
-    </row>
-    <row r="14" spans="1:17" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+    </row>
+    <row r="14" spans="1:19" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="242"/>
-      <c r="K14" s="242"/>
-      <c r="L14" s="243"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="255"/>
+      <c r="L14" s="256"/>
+      <c r="M14" s="256"/>
+      <c r="N14" s="257"/>
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
       <c r="Q14" s="60"/>
-    </row>
-    <row r="15" spans="1:17" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-    </row>
-    <row r="16" spans="1:17" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="219"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="219"/>
+    </row>
+    <row r="16" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
+      <c r="K16" s="219"/>
+      <c r="L16" s="219"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="219"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="219"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="219"/>
+      <c r="L19" s="219"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-    </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="219"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-    </row>
-    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="219"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="219"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="219"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="219"/>
+      <c r="L27" s="219"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="219"/>
+      <c r="K28" s="219"/>
+      <c r="L28" s="219"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="193"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="219"/>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="219"/>
+      <c r="L30" s="219"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="219"/>
+      <c r="K31" s="219"/>
+      <c r="L31" s="219"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="219"/>
+      <c r="K32" s="219"/>
+      <c r="L32" s="219"/>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="219"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="219"/>
+      <c r="K34" s="219"/>
+      <c r="L34" s="219"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="193"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="219"/>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="219"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="219"/>
+      <c r="K36" s="219"/>
+      <c r="L36" s="219"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="193"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="219"/>
+      <c r="K37" s="219"/>
+      <c r="L37" s="219"/>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="193"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="219"/>
+      <c r="K38" s="219"/>
+      <c r="L38" s="219"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="193"/>
-      <c r="G39" s="193"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="193"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="219"/>
+      <c r="J39" s="219"/>
+      <c r="K39" s="219"/>
+      <c r="L39" s="219"/>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="219"/>
+      <c r="K40" s="219"/>
+      <c r="L40" s="219"/>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="193"/>
-    </row>
-    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
+      <c r="K41" s="219"/>
+      <c r="L41" s="219"/>
+    </row>
+    <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="219"/>
+      <c r="K42" s="219"/>
+      <c r="L42" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G32:L32"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I9">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H9">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O5"/>
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q5"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="portrait" r:id="rId1"/>
@@ -9980,7 +10189,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C24" sqref="C24:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9999,11 +10208,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -10034,9 +10243,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
+      <c r="A2" s="209"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -10376,22 +10585,22 @@
       <c r="J23" s="169"/>
       <c r="K23" s="170"/>
     </row>
-    <row r="24" spans="1:12" s="281" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="278" t="s">
+    <row r="24" spans="1:12" s="205" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="204" t="s">
         <v>266</v>
       </c>
-      <c r="B24" s="278"/>
-      <c r="C24" s="279" t="s">
+      <c r="B24" s="204"/>
+      <c r="C24" s="276" t="s">
         <v>267</v>
       </c>
-      <c r="D24" s="279"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="279"/>
-      <c r="I24" s="279"/>
-      <c r="J24" s="279"/>
-      <c r="K24" s="280"/>
+      <c r="D24" s="276"/>
+      <c r="E24" s="276"/>
+      <c r="F24" s="276"/>
+      <c r="G24" s="276"/>
+      <c r="H24" s="276"/>
+      <c r="I24" s="276"/>
+      <c r="J24" s="276"/>
+      <c r="K24" s="277"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="171" t="s">
@@ -10475,12 +10684,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="258"/>
-      <c r="I30" s="258"/>
-      <c r="J30" s="258"/>
-      <c r="K30" s="258"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="275"/>
+      <c r="I30" s="275"/>
+      <c r="J30" s="275"/>
+      <c r="K30" s="275"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -10489,12 +10698,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="258"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="258"/>
-      <c r="I31" s="258"/>
-      <c r="J31" s="258"/>
-      <c r="K31" s="258"/>
+      <c r="F31" s="275"/>
+      <c r="G31" s="275"/>
+      <c r="H31" s="275"/>
+      <c r="I31" s="275"/>
+      <c r="J31" s="275"/>
+      <c r="K31" s="275"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -10503,12 +10712,12 @@
       <c r="C32" s="39"/>
       <c r="D32" s="42"/>
       <c r="E32" s="38"/>
-      <c r="F32" s="258"/>
-      <c r="G32" s="258"/>
-      <c r="H32" s="258"/>
-      <c r="I32" s="258"/>
-      <c r="J32" s="258"/>
-      <c r="K32" s="258"/>
+      <c r="F32" s="275"/>
+      <c r="G32" s="275"/>
+      <c r="H32" s="275"/>
+      <c r="I32" s="275"/>
+      <c r="J32" s="275"/>
+      <c r="K32" s="275"/>
       <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10517,12 +10726,12 @@
       <c r="C33" s="39"/>
       <c r="D33" s="42"/>
       <c r="E33" s="38"/>
-      <c r="F33" s="258"/>
-      <c r="G33" s="258"/>
-      <c r="H33" s="258"/>
-      <c r="I33" s="258"/>
-      <c r="J33" s="258"/>
-      <c r="K33" s="258"/>
+      <c r="F33" s="275"/>
+      <c r="G33" s="275"/>
+      <c r="H33" s="275"/>
+      <c r="I33" s="275"/>
+      <c r="J33" s="275"/>
+      <c r="K33" s="275"/>
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -10751,11 +10960,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -10778,9 +10987,9 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
+      <c r="A2" s="209"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -11150,12 +11359,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="42"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="258"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="258"/>
-      <c r="I28" s="258"/>
-      <c r="J28" s="258"/>
-      <c r="K28" s="258"/>
+      <c r="F28" s="275"/>
+      <c r="G28" s="275"/>
+      <c r="H28" s="275"/>
+      <c r="I28" s="275"/>
+      <c r="J28" s="275"/>
+      <c r="K28" s="275"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -11164,12 +11373,12 @@
       <c r="C29" s="39"/>
       <c r="D29" s="42"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="258"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="258"/>
-      <c r="I29" s="258"/>
-      <c r="J29" s="258"/>
-      <c r="K29" s="258"/>
+      <c r="F29" s="275"/>
+      <c r="G29" s="275"/>
+      <c r="H29" s="275"/>
+      <c r="I29" s="275"/>
+      <c r="J29" s="275"/>
+      <c r="K29" s="275"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -11178,12 +11387,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="258"/>
-      <c r="I30" s="258"/>
-      <c r="J30" s="258"/>
-      <c r="K30" s="258"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="275"/>
+      <c r="I30" s="275"/>
+      <c r="J30" s="275"/>
+      <c r="K30" s="275"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11192,12 +11401,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="258"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="258"/>
-      <c r="I31" s="258"/>
-      <c r="J31" s="258"/>
-      <c r="K31" s="258"/>
+      <c r="F31" s="275"/>
+      <c r="G31" s="275"/>
+      <c r="H31" s="275"/>
+      <c r="I31" s="275"/>
+      <c r="J31" s="275"/>
+      <c r="K31" s="275"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -11417,14 +11626,14 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="E2" s="259" t="s">
+      <c r="E2" s="278" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -11845,11 +12054,11 @@
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="260" t="s">
+      <c r="E28" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="261"/>
-      <c r="G28" s="262"/>
+      <c r="F28" s="280"/>
+      <c r="G28" s="281"/>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu nhap xuat vcnb/WF0013 Cap nhat phieu chuyen kho.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu nhap xuat vcnb/WF0013 Cap nhat phieu chuyen kho.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="823" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$K$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$Q$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$L$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$L$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Item Screen'!$A$1:$N$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Layout Screen'!$A$1:$J$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Update History'!$A$1:$J$14</definedName>
@@ -1147,30 +1147,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ngày tạo tài liệu</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1952,7 +1928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="268">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2919,21 +2895,6 @@
     <t>Thị Phượng</t>
   </si>
   <si>
-    <t>Sửa</t>
-  </si>
-  <si>
-    <t>Require</t>
-  </si>
-  <si>
-    <t>Click LinkEdit</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>WFML000185</t>
-  </si>
-  <si>
     <t>AT2006</t>
   </si>
   <si>
@@ -2975,34 +2936,33 @@
     <t>@SQL005</t>
   </si>
   <si>
-    <t xml:space="preserve">Chỉ dùng cho Customize Hoàng Trần (CustomizeIndex = 51) Thực hiện câu @SQL005 để kiểm tra điệu kiện để load màn hình Cập nhật khi thực hiện Click LinkEdit </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ver 3.0 </t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Ver 3.0</t>
+  </si>
+  <si>
+    <t>CusomizeIndex</t>
+  </si>
+  <si>
+    <t>CustomizeIndex</t>
+  </si>
+  <si>
+    <t>- CustomizeIndex = 51 (Hoàng Trần ) Kiểm tra điều kiện trước khi sửa
++ sheet Data Input thêm @SQL005
++ Sheet Form Func Spec Thêm xử lý khi sửa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiện câu @SQL005 để kiểm tra điệu kiện để load màn hình Cập nhật khi thực hiện Click LinkEdit </t>
   </si>
   <si>
     <t>CustomizeIndex =51
 Click LickEdit Thực thi @SQL0005 để kiểm tra điều kiện IsWeb,
-- Nếu =1 cảnh báo message WFML000185, nếu Click OK thực thi câu @SQL004 để load Form WF0013 nhưng Disabled tất cả các trường, nếu Click No thực hiện thoát
+- Nếu =1 cảnh báo message WFML000185, nếu Click OK thực thi câu @SQL004 để load Form WF0013 nhưng Disabled BtnSave tương tự như view, nếu Click No thực hiện thoát
 - Nếu =0 thực hiện @SQL004 để load form WF0013</t>
-  </si>
-  <si>
-    <t>- CustomizeIndex = 51 (Hoàng Trần ) Kiểm tra điều kiện trước khi sửa
-+ sheet Input check Thêm WFML000185 
-+ sheet Data Input thêm @SQL005
-+ Sheet Form Func Spec Thêm xử lý khi sửa</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Ver 3.0</t>
-  </si>
-  <si>
-    <t>CusomizeIndex</t>
-  </si>
-  <si>
-    <t>CustomizeIndex</t>
   </si>
 </sst>
 </file>
@@ -3458,7 +3418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3986,12 +3946,6 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4019,6 +3973,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4151,6 +4108,12 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4178,6 +4141,45 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4187,45 +4189,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4246,15 +4209,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4613,10 +4567,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
+      <c r="B1" s="208"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -4643,8 +4597,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209"/>
-      <c r="B2" s="209"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -4695,14 +4649,14 @@
       <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="210" t="s">
+      <c r="E4" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
     </row>
     <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -4719,14 +4673,14 @@
         <f>H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="E5" s="211" t="s">
+      <c r="E5" s="210" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="212"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="212"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -4741,14 +4695,14 @@
       <c r="D6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="213" t="s">
+      <c r="E6" s="212" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="215"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="214"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="112">
@@ -4763,14 +4717,14 @@
       <c r="D7" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="216" t="s">
-        <v>268</v>
-      </c>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="218"/>
+      <c r="E7" s="215" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="217"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -4781,12 +4735,12 @@
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="207"/>
-      <c r="H8" s="207"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="208"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="206"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="206"/>
+      <c r="I8" s="206"/>
+      <c r="J8" s="207"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -4797,12 +4751,12 @@
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="221"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="222"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="221"/>
     </row>
     <row r="10" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -4813,12 +4767,12 @@
       </c>
       <c r="C10" s="117"/>
       <c r="D10" s="118"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="224"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="225"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="224"/>
     </row>
     <row r="11" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4829,12 +4783,12 @@
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="121"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="227"/>
-      <c r="J11" s="228"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="227"/>
     </row>
     <row r="12" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -4845,12 +4799,12 @@
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="124"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="230"/>
-      <c r="G12" s="230"/>
-      <c r="H12" s="230"/>
-      <c r="I12" s="230"/>
-      <c r="J12" s="231"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="229"/>
+      <c r="G12" s="229"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="230"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -4861,12 +4815,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="234"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="232"/>
+      <c r="G13" s="232"/>
+      <c r="H13" s="232"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="233"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -4877,348 +4831,348 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="236"/>
-      <c r="G14" s="236"/>
-      <c r="H14" s="236"/>
-      <c r="I14" s="236"/>
-      <c r="J14" s="237"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="235"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="235"/>
+      <c r="J14" s="236"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="219"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="219"/>
-      <c r="J17" s="219"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="219"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="219"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="219"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="218"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="219"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="219"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="219"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="219"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="218"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="218"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="219"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="218"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="218"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="218"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="218"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="218"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="219"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="218"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="219"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="218"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="219"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="218"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="219"/>
-      <c r="F36" s="219"/>
-      <c r="G36" s="219"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="219"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="218"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="219"/>
-      <c r="F37" s="219"/>
-      <c r="G37" s="219"/>
-      <c r="H37" s="219"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="219"/>
+      <c r="E37" s="218"/>
+      <c r="F37" s="218"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="218"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="219"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="218"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="219"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="218"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="219"/>
-      <c r="F40" s="219"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
-      <c r="J40" s="219"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="218"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="219"/>
-      <c r="F41" s="219"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
+      <c r="E41" s="218"/>
+      <c r="F41" s="218"/>
+      <c r="G41" s="218"/>
+      <c r="H41" s="218"/>
+      <c r="I41" s="218"/>
+      <c r="J41" s="218"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="219"/>
-      <c r="F42" s="219"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="219"/>
-      <c r="I42" s="219"/>
-      <c r="J42" s="219"/>
+      <c r="E42" s="218"/>
+      <c r="F42" s="218"/>
+      <c r="G42" s="218"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="218"/>
+      <c r="J42" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -5470,10 +5424,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
+      <c r="B1" s="208"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -5504,8 +5458,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209"/>
-      <c r="B2" s="209"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -5548,76 +5502,76 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209" t="s">
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="209"/>
+      <c r="J4" s="208"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="244"/>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="246"/>
-      <c r="I5" s="238" t="s">
+      <c r="A5" s="243"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="239"/>
+      <c r="J5" s="238"/>
     </row>
     <row r="6" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="247"/>
-      <c r="B6" s="248"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="240" t="s">
+      <c r="A6" s="246"/>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="247"/>
+      <c r="G6" s="247"/>
+      <c r="H6" s="248"/>
+      <c r="I6" s="239" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="241"/>
+      <c r="J6" s="240"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="247"/>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
-      <c r="E7" s="248"/>
-      <c r="F7" s="248"/>
-      <c r="G7" s="248"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="242" t="s">
+      <c r="A7" s="246"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="248"/>
+      <c r="I7" s="241" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="243"/>
+      <c r="J7" s="242"/>
     </row>
     <row r="8" spans="1:10" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="247"/>
-      <c r="B8" s="248"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="248"/>
-      <c r="E8" s="248"/>
-      <c r="F8" s="248"/>
-      <c r="G8" s="248"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="282" t="s">
+      <c r="A8" s="246"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="249" t="s">
         <v>241</v>
       </c>
-      <c r="J8" s="283"/>
+      <c r="J8" s="250"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -5696,336 +5650,336 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="219"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="219"/>
-      <c r="J17" s="219"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="219"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="219"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="219"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="218"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="219"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="219"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="219"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="219"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="218"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="218"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="219"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="218"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="218"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="218"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="218"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="218"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="219"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="218"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="219"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="218"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="219"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="218"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="219"/>
-      <c r="F36" s="219"/>
-      <c r="G36" s="219"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="219"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="218"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="219"/>
-      <c r="F37" s="219"/>
-      <c r="G37" s="219"/>
-      <c r="H37" s="219"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="219"/>
+      <c r="E37" s="218"/>
+      <c r="F37" s="218"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="218"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="219"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="218"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="219"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="218"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="219"/>
-      <c r="F40" s="219"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
-      <c r="J40" s="219"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="218"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="219"/>
-      <c r="F41" s="219"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
+      <c r="E41" s="218"/>
+      <c r="F41" s="218"/>
+      <c r="G41" s="218"/>
+      <c r="H41" s="218"/>
+      <c r="I41" s="218"/>
+      <c r="J41" s="218"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="219"/>
-      <c r="F42" s="219"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="219"/>
-      <c r="I42" s="219"/>
-      <c r="J42" s="219"/>
+      <c r="E42" s="218"/>
+      <c r="F42" s="218"/>
+      <c r="G42" s="218"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="218"/>
+      <c r="J42" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -6082,7 +6036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N226"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
@@ -6106,10 +6060,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="250"/>
+      <c r="B1" s="251"/>
       <c r="C1" s="128" t="s">
         <v>1</v>
       </c>
@@ -6134,18 +6088,18 @@
       <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="251" t="str">
+      <c r="J1" s="252" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="K1" s="252"/>
+      <c r="K1" s="253"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209"/>
-      <c r="B2" s="250"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="128" t="s">
         <v>7</v>
       </c>
@@ -6170,11 +6124,11 @@
       <c r="I2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="253">
+      <c r="J2" s="254">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
-      <c r="K2" s="254"/>
+      <c r="K2" s="255"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -7884,10 +7838,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7905,12 +7859,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
       <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
@@ -7941,10 +7895,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
@@ -7993,10 +7947,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="191" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C4" s="191" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D4" s="61" t="s">
         <v>22</v>
@@ -8016,69 +7970,53 @@
       <c r="I4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="258" t="s">
+      <c r="J4" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="193">
-        <v>1</v>
-      </c>
-      <c r="B5" s="193" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="193">
-        <v>51</v>
-      </c>
-      <c r="D5" s="194" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="195" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="198" t="s">
-        <v>254</v>
-      </c>
-      <c r="I5" s="198" t="s">
-        <v>255</v>
-      </c>
-      <c r="J5" s="259" t="s">
-        <v>256</v>
-      </c>
-      <c r="K5" s="260"/>
-      <c r="L5" s="261"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="259"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="256"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="258"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="255"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="257"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="256"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="258"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="19"/>
       <c r="E7" s="57"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="257"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="256"/>
+      <c r="K7" s="257"/>
+      <c r="L7" s="258"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
@@ -8087,26 +8025,26 @@
       <c r="D8" s="19"/>
       <c r="E8" s="57"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="255"/>
-      <c r="K8" s="256"/>
-      <c r="L8" s="257"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="256"/>
+      <c r="K8" s="257"/>
+      <c r="L8" s="258"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="19"/>
       <c r="E9" s="57"/>
       <c r="F9" s="18"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="255"/>
-      <c r="K9" s="256"/>
-      <c r="L9" s="257"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="257"/>
+      <c r="L9" s="258"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
@@ -8118,9 +8056,9 @@
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="255"/>
-      <c r="K10" s="256"/>
-      <c r="L10" s="257"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="257"/>
+      <c r="L10" s="258"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
@@ -8132,23 +8070,23 @@
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="255"/>
-      <c r="K11" s="256"/>
-      <c r="L11" s="257"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="256"/>
+      <c r="K11" s="257"/>
+      <c r="L11" s="258"/>
+    </row>
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="255"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="257"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="256"/>
+      <c r="K12" s="257"/>
+      <c r="L12" s="258"/>
     </row>
     <row r="13" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
@@ -8160,65 +8098,65 @@
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
-      <c r="J13" s="255"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
-    </row>
-    <row r="14" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="255"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="257"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="257"/>
+      <c r="L13" s="258"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="218"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="219"/>
-      <c r="K15" s="219"/>
-      <c r="L15" s="219"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="219"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="219"/>
-      <c r="J17" s="219"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="219"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -8227,26 +8165,26 @@
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="219"/>
-      <c r="L18" s="219"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="35"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="219"/>
-      <c r="K19" s="219"/>
-      <c r="L19" s="219"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -8255,12 +8193,12 @@
       <c r="D20" s="35"/>
       <c r="E20" s="36"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="219"/>
-      <c r="K20" s="219"/>
-      <c r="L20" s="219"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -8269,12 +8207,12 @@
       <c r="D21" s="35"/>
       <c r="E21" s="36"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="219"/>
-      <c r="K21" s="219"/>
-      <c r="L21" s="219"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -8283,12 +8221,12 @@
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="219"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="219"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -8297,68 +8235,68 @@
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="219"/>
-      <c r="L23" s="219"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="219"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="219"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="219"/>
-      <c r="K27" s="219"/>
-      <c r="L27" s="219"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -8367,26 +8305,26 @@
       <c r="D28" s="35"/>
       <c r="E28" s="36"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="219"/>
-      <c r="L28" s="219"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="218"/>
+      <c r="L28" s="218"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="219"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -8395,12 +8333,12 @@
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="219"/>
-      <c r="L30" s="219"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -8409,12 +8347,12 @@
       <c r="D31" s="35"/>
       <c r="E31" s="36"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="219"/>
-      <c r="L31" s="219"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="218"/>
+      <c r="L31" s="218"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -8423,12 +8361,12 @@
       <c r="D32" s="35"/>
       <c r="E32" s="36"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="219"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="218"/>
+      <c r="K32" s="218"/>
+      <c r="L32" s="218"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -8437,68 +8375,68 @@
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
       <c r="F33" s="34"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="219"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="219"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="218"/>
+      <c r="L33" s="218"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="219"/>
-      <c r="K34" s="219"/>
-      <c r="L34" s="219"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="218"/>
+      <c r="K34" s="218"/>
+      <c r="L34" s="218"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
       <c r="F35" s="34"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
-      <c r="K35" s="219"/>
-      <c r="L35" s="219"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="218"/>
+      <c r="K35" s="218"/>
+      <c r="L35" s="218"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="219"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="219"/>
-      <c r="K36" s="219"/>
-      <c r="L36" s="219"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="218"/>
+      <c r="K36" s="218"/>
+      <c r="L36" s="218"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="219"/>
-      <c r="H37" s="219"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="219"/>
-      <c r="K37" s="219"/>
-      <c r="L37" s="219"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="218"/>
+      <c r="K37" s="218"/>
+      <c r="L37" s="218"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -8507,26 +8445,26 @@
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="34"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="219"/>
-      <c r="K38" s="219"/>
-      <c r="L38" s="219"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="218"/>
+      <c r="K38" s="218"/>
+      <c r="L38" s="218"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="219"/>
-      <c r="K39" s="219"/>
-      <c r="L39" s="219"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="218"/>
+      <c r="K39" s="218"/>
+      <c r="L39" s="218"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -8535,75 +8473,61 @@
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
       <c r="F40" s="34"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
-      <c r="J40" s="219"/>
-      <c r="K40" s="219"/>
-      <c r="L40" s="219"/>
-    </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="218"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="218"/>
+    </row>
+    <row r="41" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
       <c r="F41" s="34"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
-      <c r="K41" s="219"/>
-      <c r="L41" s="219"/>
-    </row>
-    <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="219"/>
-      <c r="I42" s="219"/>
-      <c r="J42" s="219"/>
-      <c r="K42" s="219"/>
-      <c r="L42" s="219"/>
+      <c r="G41" s="218"/>
+      <c r="H41" s="218"/>
+      <c r="I41" s="218"/>
+      <c r="J41" s="218"/>
+      <c r="K41" s="218"/>
+      <c r="L41" s="218"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="39">
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="G34:L34"/>
     <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G26:L26"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G22:L22"/>
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G32:L32"/>
     <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="G38:L38"/>
     <mergeCell ref="G39:L39"/>
     <mergeCell ref="G40:L40"/>
     <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G36:L36"/>
     <mergeCell ref="G37:L37"/>
-    <mergeCell ref="G38:L38"/>
-    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G14:L14"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="G17:L17"/>
@@ -8611,7 +8535,6 @@
     <mergeCell ref="G19:L19"/>
     <mergeCell ref="G20:L20"/>
     <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
@@ -8647,10 +8570,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
+      <c r="B1" s="208"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -8681,8 +8604,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209"/>
-      <c r="B2" s="209"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -8713,16 +8636,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="266"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="268"/>
+      <c r="A3" s="264"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="266"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
@@ -8737,16 +8660,16 @@
       <c r="D4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="262" t="s">
+      <c r="E4" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="262"/>
-      <c r="G4" s="263" t="s">
+      <c r="F4" s="260"/>
+      <c r="G4" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="265"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="263"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -8873,336 +8796,336 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="219"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="219"/>
-      <c r="J17" s="219"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="219"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="219"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="219"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="218"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="219"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="219"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="219"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="219"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="218"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="218"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="219"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="218"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="218"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="218"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="218"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="218"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="219"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="218"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="219"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="218"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="219"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="218"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="219"/>
-      <c r="F36" s="219"/>
-      <c r="G36" s="219"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="219"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="218"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="219"/>
-      <c r="F37" s="219"/>
-      <c r="G37" s="219"/>
-      <c r="H37" s="219"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="219"/>
+      <c r="E37" s="218"/>
+      <c r="F37" s="218"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="218"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="219"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="218"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="219"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="218"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="219"/>
-      <c r="F40" s="219"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
-      <c r="J40" s="219"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="218"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="219"/>
-      <c r="F41" s="219"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
+      <c r="E41" s="218"/>
+      <c r="F41" s="218"/>
+      <c r="G41" s="218"/>
+      <c r="H41" s="218"/>
+      <c r="I41" s="218"/>
+      <c r="J41" s="218"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="219"/>
-      <c r="F42" s="219"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="219"/>
-      <c r="I42" s="219"/>
-      <c r="J42" s="219"/>
+      <c r="E42" s="218"/>
+      <c r="F42" s="218"/>
+      <c r="G42" s="218"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="218"/>
+      <c r="J42" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -9254,8 +9177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="L7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9282,12 +9205,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
       <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9325,10 +9248,10 @@
       <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
@@ -9366,18 +9289,18 @@
       <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="266"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
-      <c r="L3" s="268"/>
+      <c r="A3" s="264"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="266"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -9391,10 +9314,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="192" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C4" s="191" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>46</v>
@@ -9417,12 +9340,12 @@
       <c r="J4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="263" t="s">
+      <c r="K4" s="261" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="264"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="265"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="263"/>
       <c r="O4" s="66" t="s">
         <v>44</v>
       </c>
@@ -9458,12 +9381,12 @@
       <c r="J5" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="K5" s="269" t="s">
+      <c r="K5" s="267" t="s">
         <v>224</v>
       </c>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="271"/>
+      <c r="L5" s="268"/>
+      <c r="M5" s="268"/>
+      <c r="N5" s="269"/>
       <c r="O5" s="164"/>
       <c r="P5" s="163"/>
       <c r="Q5" s="168" t="s">
@@ -9493,12 +9416,12 @@
       <c r="J6" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="K6" s="272" t="s">
+      <c r="K6" s="270" t="s">
         <v>228</v>
       </c>
-      <c r="L6" s="273"/>
-      <c r="M6" s="273"/>
-      <c r="N6" s="274"/>
+      <c r="L6" s="271"/>
+      <c r="M6" s="271"/>
+      <c r="N6" s="272"/>
       <c r="O6" s="185" t="s">
         <v>230</v>
       </c>
@@ -9528,12 +9451,12 @@
       <c r="J7" s="164" t="s">
         <v>233</v>
       </c>
-      <c r="K7" s="272" t="s">
+      <c r="K7" s="270" t="s">
         <v>249</v>
       </c>
-      <c r="L7" s="273"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="274"/>
+      <c r="L7" s="271"/>
+      <c r="M7" s="271"/>
+      <c r="N7" s="272"/>
       <c r="O7" s="189" t="s">
         <v>234</v>
       </c>
@@ -9563,12 +9486,12 @@
       <c r="J8" s="164" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="269" t="s">
+      <c r="K8" s="267" t="s">
         <v>245</v>
       </c>
-      <c r="L8" s="270"/>
-      <c r="M8" s="270"/>
-      <c r="N8" s="271"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="268"/>
+      <c r="N8" s="269"/>
       <c r="O8" s="157"/>
       <c r="P8" s="157"/>
       <c r="Q8" s="157"/>
@@ -9576,50 +9499,50 @@
       <c r="S8" s="157"/>
     </row>
     <row r="9" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
-      <c r="B9" s="284" t="s">
-        <v>270</v>
-      </c>
-      <c r="C9" s="284">
+      <c r="A9" s="197"/>
+      <c r="B9" s="204" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="204">
         <v>51</v>
       </c>
       <c r="D9" s="194" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="198"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="196" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="199" t="s">
+        <v>221</v>
+      </c>
+      <c r="I9" s="199" t="s">
+        <v>253</v>
+      </c>
+      <c r="J9" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" s="273" t="s">
+        <v>254</v>
+      </c>
+      <c r="L9" s="274"/>
+      <c r="M9" s="274"/>
+      <c r="N9" s="275"/>
+      <c r="O9" s="200" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" s="195" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q9" s="201" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="200"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="198" t="s">
-        <v>263</v>
-      </c>
-      <c r="H9" s="201" t="s">
-        <v>221</v>
-      </c>
-      <c r="I9" s="201" t="s">
-        <v>258</v>
-      </c>
-      <c r="J9" s="197" t="s">
-        <v>264</v>
-      </c>
-      <c r="K9" s="259" t="s">
-        <v>259</v>
-      </c>
-      <c r="L9" s="260"/>
-      <c r="M9" s="260"/>
-      <c r="N9" s="261"/>
-      <c r="O9" s="202" t="s">
-        <v>260</v>
-      </c>
-      <c r="P9" s="197" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q9" s="203" t="s">
-        <v>262</v>
-      </c>
-      <c r="R9" s="203" t="s">
+      <c r="R9" s="201" t="s">
         <v>171</v>
       </c>
-      <c r="S9" s="198" t="s">
-        <v>265</v>
+      <c r="S9" s="196" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9633,10 +9556,10 @@
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
-      <c r="K10" s="255"/>
-      <c r="L10" s="256"/>
-      <c r="M10" s="256"/>
-      <c r="N10" s="257"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="257"/>
+      <c r="M10" s="257"/>
+      <c r="N10" s="258"/>
       <c r="O10" s="60"/>
       <c r="P10" s="60"/>
       <c r="Q10" s="60"/>
@@ -9654,10 +9577,10 @@
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
-      <c r="K11" s="255"/>
-      <c r="L11" s="256"/>
-      <c r="M11" s="256"/>
-      <c r="N11" s="257"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="257"/>
+      <c r="M11" s="257"/>
+      <c r="N11" s="258"/>
       <c r="O11" s="60"/>
       <c r="P11" s="60"/>
       <c r="Q11" s="60"/>
@@ -9675,10 +9598,10 @@
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
-      <c r="K12" s="255"/>
-      <c r="L12" s="256"/>
-      <c r="M12" s="256"/>
-      <c r="N12" s="257"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="257"/>
+      <c r="N12" s="258"/>
       <c r="O12" s="60"/>
       <c r="P12" s="60"/>
       <c r="Q12" s="60"/>
@@ -9696,10 +9619,10 @@
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
       <c r="J13" s="55"/>
-      <c r="K13" s="255"/>
-      <c r="L13" s="256"/>
-      <c r="M13" s="256"/>
-      <c r="N13" s="257"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
+      <c r="M13" s="257"/>
+      <c r="N13" s="258"/>
       <c r="O13" s="60"/>
       <c r="P13" s="60"/>
       <c r="Q13" s="60"/>
@@ -9717,10 +9640,10 @@
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
-      <c r="K14" s="255"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="257"/>
+      <c r="K14" s="256"/>
+      <c r="L14" s="257"/>
+      <c r="M14" s="257"/>
+      <c r="N14" s="258"/>
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
       <c r="Q14" s="60"/>
@@ -9734,12 +9657,12 @@
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="219"/>
-      <c r="K15" s="219"/>
-      <c r="L15" s="219"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -9748,12 +9671,12 @@
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="219"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -9762,12 +9685,12 @@
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="219"/>
-      <c r="J17" s="219"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="219"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -9776,12 +9699,12 @@
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="219"/>
-      <c r="L18" s="219"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -9790,12 +9713,12 @@
       <c r="D19" s="35"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="219"/>
-      <c r="K19" s="219"/>
-      <c r="L19" s="219"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -9804,12 +9727,12 @@
       <c r="D20" s="35"/>
       <c r="E20" s="36"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="219"/>
-      <c r="K20" s="219"/>
-      <c r="L20" s="219"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -9818,12 +9741,12 @@
       <c r="D21" s="35"/>
       <c r="E21" s="36"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="219"/>
-      <c r="K21" s="219"/>
-      <c r="L21" s="219"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -9832,12 +9755,12 @@
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="219"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="219"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -9846,12 +9769,12 @@
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="219"/>
-      <c r="L23" s="219"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -9860,12 +9783,12 @@
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
@@ -9874,12 +9797,12 @@
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="219"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -9888,12 +9811,12 @@
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="219"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -9902,12 +9825,12 @@
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="219"/>
-      <c r="K27" s="219"/>
-      <c r="L27" s="219"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -9916,12 +9839,12 @@
       <c r="D28" s="35"/>
       <c r="E28" s="36"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="219"/>
-      <c r="L28" s="219"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="218"/>
+      <c r="L28" s="218"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
@@ -9930,12 +9853,12 @@
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="219"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -9944,12 +9867,12 @@
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="219"/>
-      <c r="L30" s="219"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -9958,12 +9881,12 @@
       <c r="D31" s="35"/>
       <c r="E31" s="36"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="219"/>
-      <c r="L31" s="219"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="218"/>
+      <c r="L31" s="218"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -9972,12 +9895,12 @@
       <c r="D32" s="35"/>
       <c r="E32" s="36"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="219"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="218"/>
+      <c r="K32" s="218"/>
+      <c r="L32" s="218"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -9986,12 +9909,12 @@
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
       <c r="F33" s="34"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="219"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="219"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="218"/>
+      <c r="L33" s="218"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -10000,12 +9923,12 @@
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="219"/>
-      <c r="K34" s="219"/>
-      <c r="L34" s="219"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="218"/>
+      <c r="K34" s="218"/>
+      <c r="L34" s="218"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
@@ -10014,12 +9937,12 @@
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
       <c r="F35" s="34"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
-      <c r="K35" s="219"/>
-      <c r="L35" s="219"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="218"/>
+      <c r="K35" s="218"/>
+      <c r="L35" s="218"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -10028,12 +9951,12 @@
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="219"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="219"/>
-      <c r="K36" s="219"/>
-      <c r="L36" s="219"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="218"/>
+      <c r="K36" s="218"/>
+      <c r="L36" s="218"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
@@ -10042,12 +9965,12 @@
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="219"/>
-      <c r="H37" s="219"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="219"/>
-      <c r="K37" s="219"/>
-      <c r="L37" s="219"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="218"/>
+      <c r="K37" s="218"/>
+      <c r="L37" s="218"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -10056,12 +9979,12 @@
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="34"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="219"/>
-      <c r="K38" s="219"/>
-      <c r="L38" s="219"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="218"/>
+      <c r="K38" s="218"/>
+      <c r="L38" s="218"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -10070,12 +9993,12 @@
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="219"/>
-      <c r="K39" s="219"/>
-      <c r="L39" s="219"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="218"/>
+      <c r="K39" s="218"/>
+      <c r="L39" s="218"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -10084,12 +10007,12 @@
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
       <c r="F40" s="34"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
-      <c r="J40" s="219"/>
-      <c r="K40" s="219"/>
-      <c r="L40" s="219"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="218"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="218"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -10098,12 +10021,12 @@
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
       <c r="F41" s="34"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
-      <c r="K41" s="219"/>
-      <c r="L41" s="219"/>
+      <c r="G41" s="218"/>
+      <c r="H41" s="218"/>
+      <c r="I41" s="218"/>
+      <c r="J41" s="218"/>
+      <c r="K41" s="218"/>
+      <c r="L41" s="218"/>
     </row>
     <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
@@ -10112,12 +10035,12 @@
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
       <c r="F42" s="34"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="219"/>
-      <c r="I42" s="219"/>
-      <c r="J42" s="219"/>
-      <c r="K42" s="219"/>
-      <c r="L42" s="219"/>
+      <c r="G42" s="218"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="218"/>
+      <c r="J42" s="218"/>
+      <c r="K42" s="218"/>
+      <c r="L42" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -10188,7 +10111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:K24"/>
     </sheetView>
   </sheetViews>
@@ -10208,11 +10131,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -10243,9 +10166,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -10585,22 +10508,22 @@
       <c r="J23" s="169"/>
       <c r="K23" s="170"/>
     </row>
-    <row r="24" spans="1:12" s="205" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="204" t="s">
-        <v>266</v>
-      </c>
-      <c r="B24" s="204"/>
-      <c r="C24" s="276" t="s">
+    <row r="24" spans="1:12" s="203" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="202" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="202"/>
+      <c r="C24" s="277" t="s">
         <v>267</v>
       </c>
-      <c r="D24" s="276"/>
-      <c r="E24" s="276"/>
-      <c r="F24" s="276"/>
-      <c r="G24" s="276"/>
-      <c r="H24" s="276"/>
-      <c r="I24" s="276"/>
-      <c r="J24" s="276"/>
-      <c r="K24" s="277"/>
+      <c r="D24" s="277"/>
+      <c r="E24" s="277"/>
+      <c r="F24" s="277"/>
+      <c r="G24" s="277"/>
+      <c r="H24" s="277"/>
+      <c r="I24" s="277"/>
+      <c r="J24" s="277"/>
+      <c r="K24" s="278"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="171" t="s">
@@ -10684,12 +10607,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="275"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="275"/>
-      <c r="I30" s="275"/>
-      <c r="J30" s="275"/>
-      <c r="K30" s="275"/>
+      <c r="F30" s="276"/>
+      <c r="G30" s="276"/>
+      <c r="H30" s="276"/>
+      <c r="I30" s="276"/>
+      <c r="J30" s="276"/>
+      <c r="K30" s="276"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -10698,12 +10621,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="275"/>
-      <c r="G31" s="275"/>
-      <c r="H31" s="275"/>
-      <c r="I31" s="275"/>
-      <c r="J31" s="275"/>
-      <c r="K31" s="275"/>
+      <c r="F31" s="276"/>
+      <c r="G31" s="276"/>
+      <c r="H31" s="276"/>
+      <c r="I31" s="276"/>
+      <c r="J31" s="276"/>
+      <c r="K31" s="276"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -10712,12 +10635,12 @@
       <c r="C32" s="39"/>
       <c r="D32" s="42"/>
       <c r="E32" s="38"/>
-      <c r="F32" s="275"/>
-      <c r="G32" s="275"/>
-      <c r="H32" s="275"/>
-      <c r="I32" s="275"/>
-      <c r="J32" s="275"/>
-      <c r="K32" s="275"/>
+      <c r="F32" s="276"/>
+      <c r="G32" s="276"/>
+      <c r="H32" s="276"/>
+      <c r="I32" s="276"/>
+      <c r="J32" s="276"/>
+      <c r="K32" s="276"/>
       <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10726,12 +10649,12 @@
       <c r="C33" s="39"/>
       <c r="D33" s="42"/>
       <c r="E33" s="38"/>
-      <c r="F33" s="275"/>
-      <c r="G33" s="275"/>
-      <c r="H33" s="275"/>
-      <c r="I33" s="275"/>
-      <c r="J33" s="275"/>
-      <c r="K33" s="275"/>
+      <c r="F33" s="276"/>
+      <c r="G33" s="276"/>
+      <c r="H33" s="276"/>
+      <c r="I33" s="276"/>
+      <c r="J33" s="276"/>
+      <c r="K33" s="276"/>
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -10960,11 +10883,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -10987,9 +10910,9 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -11359,12 +11282,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="42"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="275"/>
-      <c r="G28" s="275"/>
-      <c r="H28" s="275"/>
-      <c r="I28" s="275"/>
-      <c r="J28" s="275"/>
-      <c r="K28" s="275"/>
+      <c r="F28" s="276"/>
+      <c r="G28" s="276"/>
+      <c r="H28" s="276"/>
+      <c r="I28" s="276"/>
+      <c r="J28" s="276"/>
+      <c r="K28" s="276"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -11373,12 +11296,12 @@
       <c r="C29" s="39"/>
       <c r="D29" s="42"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="275"/>
-      <c r="G29" s="275"/>
-      <c r="H29" s="275"/>
-      <c r="I29" s="275"/>
-      <c r="J29" s="275"/>
-      <c r="K29" s="275"/>
+      <c r="F29" s="276"/>
+      <c r="G29" s="276"/>
+      <c r="H29" s="276"/>
+      <c r="I29" s="276"/>
+      <c r="J29" s="276"/>
+      <c r="K29" s="276"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -11387,12 +11310,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="275"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="275"/>
-      <c r="I30" s="275"/>
-      <c r="J30" s="275"/>
-      <c r="K30" s="275"/>
+      <c r="F30" s="276"/>
+      <c r="G30" s="276"/>
+      <c r="H30" s="276"/>
+      <c r="I30" s="276"/>
+      <c r="J30" s="276"/>
+      <c r="K30" s="276"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11401,12 +11324,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="275"/>
-      <c r="G31" s="275"/>
-      <c r="H31" s="275"/>
-      <c r="I31" s="275"/>
-      <c r="J31" s="275"/>
-      <c r="K31" s="275"/>
+      <c r="F31" s="276"/>
+      <c r="G31" s="276"/>
+      <c r="H31" s="276"/>
+      <c r="I31" s="276"/>
+      <c r="J31" s="276"/>
+      <c r="K31" s="276"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -11626,14 +11549,14 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="E2" s="278" t="s">
+      <c r="E2" s="279" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -12054,11 +11977,11 @@
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="279" t="s">
+      <c r="E28" s="280" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="280"/>
-      <c r="G28" s="281"/>
+      <c r="F28" s="281"/>
+      <c r="G28" s="282"/>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
